--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2908.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2908.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177849801941673</v>
+        <v>1.50080680847168</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.051681041717529</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.170416593551636</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.844185829162598</v>
       </c>
       <c r="E1">
-        <v>1.165565634823628</v>
+        <v>0.8570576310157776</v>
       </c>
     </row>
   </sheetData>
